--- a/downloads/RSST Risk Decomp 09.03.24.xlsx
+++ b/downloads/RSST Risk Decomp 09.03.24.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Measures - Sep 7, 2023 to Aug 29, 2024</t>
+          <t>Measures - Sep 7, 2023 to Aug 30, 2024</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/3/2024 5:28:26 AM</t>
+          <t>9/3/2024 11:19:09 AM</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>218571378.4</v>
+        <v>220619526.75</v>
       </c>
     </row>
     <row r="13">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.547243</v>
+        <v>1.510911</v>
       </c>
       <c r="C13" t="n">
-        <v>1.876634</v>
+        <v>1.531806</v>
       </c>
       <c r="D13" t="n">
-        <v>1.703892</v>
+        <v>1.646764</v>
       </c>
       <c r="E13" t="n">
-        <v>1.435902</v>
+        <v>1.378289</v>
       </c>
       <c r="F13" t="n">
-        <v>1.062109</v>
+        <v>1.021329</v>
       </c>
       <c r="G13" t="n">
-        <v>4.671184</v>
+        <v>4.671976</v>
       </c>
       <c r="H13" t="n">
-        <v>4.944202</v>
+        <v>4.13324</v>
       </c>
       <c r="I13" t="n">
-        <v>1.618612</v>
+        <v>1.615</v>
       </c>
       <c r="J13" t="n">
-        <v>3.798976</v>
+        <v>3.723104</v>
       </c>
       <c r="K13" t="n">
-        <v>3.446279</v>
+        <v>3.440169</v>
       </c>
       <c r="L13" t="n">
-        <v>8.375638</v>
+        <v>8.042135</v>
       </c>
       <c r="M13" t="n">
-        <v>18296035</v>
+        <v>17736090</v>
       </c>
     </row>
     <row r="14">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.887594</v>
+        <v>3.76993</v>
       </c>
       <c r="C14" t="n">
-        <v>3.986272</v>
+        <v>3.421302</v>
       </c>
       <c r="D14" t="n">
-        <v>2.405432</v>
+        <v>2.300045</v>
       </c>
       <c r="E14" t="n">
-        <v>3.149157</v>
+        <v>2.792856</v>
       </c>
       <c r="F14" t="n">
-        <v>2.983534</v>
+        <v>2.850211</v>
       </c>
       <c r="G14" t="n">
-        <v>6.269721</v>
+        <v>6.269712</v>
       </c>
       <c r="H14" t="n">
-        <v>5.610254</v>
+        <v>4.965131</v>
       </c>
       <c r="I14" t="n">
-        <v>1.220654</v>
+        <v>1.213194</v>
       </c>
       <c r="J14" t="n">
-        <v>4.450769</v>
+        <v>4.057569</v>
       </c>
       <c r="K14" t="n">
-        <v>5.171438</v>
+        <v>5.163494</v>
       </c>
       <c r="L14" t="n">
-        <v>15.679021</v>
+        <v>14.952674</v>
       </c>
       <c r="M14" t="n">
-        <v>34249800.01</v>
+        <v>32976562.51</v>
       </c>
     </row>
     <row r="15">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.141893</v>
+        <v>-0.102093</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.194139</v>
+        <v>-0.167507</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.134885</v>
+        <v>-0.09465999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.18981</v>
+        <v>0.1356</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.011745</v>
+        <v>-0.009183999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>3.20767</v>
+        <v>3.1644</v>
       </c>
       <c r="H15" t="n">
-        <v>3.829899</v>
+        <v>4.530595</v>
       </c>
       <c r="I15" t="n">
-        <v>0.959452</v>
+        <v>0.930552</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.760276</v>
+        <v>-3.671639</v>
       </c>
       <c r="K15" t="n">
-        <v>0.285372</v>
+        <v>0.310082</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.118559</v>
+        <v>-0.8023</v>
       </c>
       <c r="M15" t="n">
-        <v>-2443420</v>
+        <v>-1769390</v>
       </c>
     </row>
     <row r="16">
@@ -751,40 +751,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.315037</v>
+        <v>0.444197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.368647</v>
+        <v>0.28904</v>
       </c>
       <c r="D16" t="n">
-        <v>0.369929</v>
+        <v>0.515178</v>
       </c>
       <c r="E16" t="n">
-        <v>0.299934</v>
+        <v>0.402778</v>
       </c>
       <c r="F16" t="n">
-        <v>0.296195</v>
+        <v>0.411271</v>
       </c>
       <c r="G16" t="n">
-        <v>2.343481</v>
+        <v>2.345585</v>
       </c>
       <c r="H16" t="n">
-        <v>2.39309</v>
+        <v>1.331859</v>
       </c>
       <c r="I16" t="n">
-        <v>0.865866</v>
+        <v>0.862805</v>
       </c>
       <c r="J16" t="n">
-        <v>1.955231</v>
+        <v>1.857995</v>
       </c>
       <c r="K16" t="n">
-        <v>2.368045</v>
+        <v>2.365682</v>
       </c>
       <c r="L16" t="n">
-        <v>3.399277</v>
+        <v>4.709314</v>
       </c>
       <c r="M16" t="n">
-        <v>7425500</v>
+        <v>10385900</v>
       </c>
     </row>
     <row r="17">
@@ -794,40 +794,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.324915</v>
+        <v>1.22158</v>
       </c>
       <c r="C17" t="n">
-        <v>2.082008</v>
+        <v>1.886551</v>
       </c>
       <c r="D17" t="n">
-        <v>1.161898</v>
+        <v>1.047099</v>
       </c>
       <c r="E17" t="n">
-        <v>0.100021</v>
+        <v>0.061477</v>
       </c>
       <c r="F17" t="n">
-        <v>0.469471</v>
+        <v>0.424625</v>
       </c>
       <c r="G17" t="n">
-        <v>8.253242999999999</v>
+        <v>8.263688</v>
       </c>
       <c r="H17" t="n">
-        <v>11.31793</v>
+        <v>11.136424</v>
       </c>
       <c r="I17" t="n">
-        <v>2.277386</v>
+        <v>2.246567</v>
       </c>
       <c r="J17" t="n">
-        <v>0.546011</v>
+        <v>0.3633</v>
       </c>
       <c r="K17" t="n">
-        <v>3.143101</v>
+        <v>3.129032</v>
       </c>
       <c r="L17" t="n">
-        <v>4.059288</v>
+        <v>3.676047</v>
       </c>
       <c r="M17" t="n">
-        <v>8867250</v>
+        <v>8107137.5</v>
       </c>
     </row>
     <row r="18">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.088307</v>
+        <v>3.560732</v>
       </c>
       <c r="C18" t="n">
-        <v>3.433111</v>
+        <v>3.426598</v>
       </c>
       <c r="D18" t="n">
-        <v>3.409049</v>
+        <v>3.885932</v>
       </c>
       <c r="E18" t="n">
-        <v>4.835578</v>
+        <v>5.412179</v>
       </c>
       <c r="F18" t="n">
-        <v>3.950318</v>
+        <v>4.49344</v>
       </c>
       <c r="G18" t="n">
-        <v>11.621671</v>
+        <v>11.620841</v>
       </c>
       <c r="H18" t="n">
-        <v>11.274157</v>
+        <v>9.758575</v>
       </c>
       <c r="I18" t="n">
-        <v>4.036579</v>
+        <v>4.022286</v>
       </c>
       <c r="J18" t="n">
-        <v>15.946664</v>
+        <v>15.430273</v>
       </c>
       <c r="K18" t="n">
-        <v>15.97692</v>
+        <v>15.97458</v>
       </c>
       <c r="L18" t="n">
-        <v>6.71952</v>
+        <v>7.619648</v>
       </c>
       <c r="M18" t="n">
-        <v>14685043.74</v>
+        <v>16781563.4</v>
       </c>
     </row>
     <row r="19">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.65019</v>
+        <v>3.362671</v>
       </c>
       <c r="C19" t="n">
-        <v>3.130468</v>
+        <v>2.066264</v>
       </c>
       <c r="D19" t="n">
-        <v>4.356818</v>
+        <v>3.940515</v>
       </c>
       <c r="E19" t="n">
-        <v>5.568108</v>
+        <v>4.9173</v>
       </c>
       <c r="F19" t="n">
-        <v>4.850597</v>
+        <v>4.401507</v>
       </c>
       <c r="G19" t="n">
-        <v>2.539111</v>
+        <v>2.540968</v>
       </c>
       <c r="H19" t="n">
-        <v>1.900307</v>
+        <v>1.362466</v>
       </c>
       <c r="I19" t="n">
-        <v>0.953604</v>
+        <v>0.944381</v>
       </c>
       <c r="J19" t="n">
-        <v>3.394278</v>
+        <v>3.245972</v>
       </c>
       <c r="K19" t="n">
-        <v>3.62639</v>
+        <v>3.623001</v>
       </c>
       <c r="L19" t="n">
-        <v>36.351303</v>
+        <v>32.909275</v>
       </c>
       <c r="M19" t="n">
-        <v>79407056.25</v>
+        <v>72577968.75</v>
       </c>
     </row>
     <row r="20">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.819196</v>
+        <v>3.59139</v>
       </c>
       <c r="C20" t="n">
-        <v>4.115526</v>
+        <v>3.352524</v>
       </c>
       <c r="D20" t="n">
-        <v>4.15205</v>
+        <v>3.858589</v>
       </c>
       <c r="E20" t="n">
-        <v>5.710365</v>
+        <v>5.129016</v>
       </c>
       <c r="F20" t="n">
-        <v>4.521218</v>
+        <v>4.19447</v>
       </c>
       <c r="G20" t="n">
-        <v>12.243057</v>
+        <v>12.242111</v>
       </c>
       <c r="H20" t="n">
-        <v>11.513078</v>
+        <v>9.972194999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>4.188058</v>
+        <v>4.171592</v>
       </c>
       <c r="J20" t="n">
-        <v>16.041878</v>
+        <v>15.273233</v>
       </c>
       <c r="K20" t="n">
-        <v>15.57709</v>
+        <v>15.574826</v>
       </c>
       <c r="L20" t="n">
-        <v>7.888027</v>
+        <v>7.295237</v>
       </c>
       <c r="M20" t="n">
-        <v>17238735.73</v>
+        <v>16067078.43</v>
       </c>
     </row>
     <row r="21">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.111476</v>
+        <v>7.220509</v>
       </c>
       <c r="C21" t="n">
-        <v>4.823397</v>
+        <v>3.909172</v>
       </c>
       <c r="D21" t="n">
-        <v>5.995282</v>
+        <v>6.105782</v>
       </c>
       <c r="E21" t="n">
-        <v>6.61041</v>
+        <v>7.663332</v>
       </c>
       <c r="F21" t="n">
-        <v>7.64547</v>
+        <v>7.607403</v>
       </c>
       <c r="G21" t="n">
-        <v>7.532804</v>
+        <v>7.557888</v>
       </c>
       <c r="H21" t="n">
-        <v>4.458596</v>
+        <v>3.57061</v>
       </c>
       <c r="I21" t="n">
-        <v>1.998199</v>
+        <v>2.026998</v>
       </c>
       <c r="J21" t="n">
-        <v>6.13619</v>
+        <v>7.007344</v>
       </c>
       <c r="K21" t="n">
-        <v>8.703903</v>
+        <v>8.674039</v>
       </c>
       <c r="L21" t="n">
-        <v>23.872028</v>
+        <v>23.757486</v>
       </c>
       <c r="M21" t="n">
-        <v>52170663.13</v>
+        <v>52323647.92</v>
       </c>
     </row>
     <row r="22">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.063318</v>
+        <v>0.06737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002918</v>
+        <v>-0.033215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.030544</v>
+        <v>0.033804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.009527000000000001</v>
+        <v>0.017098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05001</v>
+        <v>0.0525</v>
       </c>
       <c r="G22" t="n">
         <v>0.116134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00467</v>
+        <v>-0.049964</v>
       </c>
       <c r="I22" t="n">
-        <v>0.017628</v>
+        <v>0.018482</v>
       </c>
       <c r="J22" t="n">
-        <v>0.015314</v>
+        <v>0.025748</v>
       </c>
       <c r="K22" t="n">
         <v>0.098583</v>
       </c>
       <c r="L22" t="n">
-        <v>13.786569</v>
+        <v>14.425793</v>
       </c>
       <c r="M22" t="n">
-        <v>30243725.92</v>
+        <v>31894540.72</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.391013</v>
+        <v>5.605693</v>
       </c>
       <c r="C23" t="n">
-        <v>6.263457</v>
+        <v>5.857766</v>
       </c>
       <c r="D23" t="n">
-        <v>4.486872</v>
+        <v>4.604839</v>
       </c>
       <c r="E23" t="n">
-        <v>6.658802</v>
+        <v>6.386177</v>
       </c>
       <c r="F23" t="n">
-        <v>4.783052</v>
+        <v>4.907939</v>
       </c>
       <c r="G23" t="n">
-        <v>11.281787</v>
+        <v>11.283081</v>
       </c>
       <c r="H23" t="n">
-        <v>11.43852</v>
+        <v>10.28858</v>
       </c>
       <c r="I23" t="n">
-        <v>2.954496</v>
+        <v>2.939628</v>
       </c>
       <c r="J23" t="n">
-        <v>12.211726</v>
+        <v>11.229037</v>
       </c>
       <c r="K23" t="n">
-        <v>10.757854</v>
+        <v>10.76093</v>
       </c>
       <c r="L23" t="n">
-        <v>12.08311</v>
+        <v>12.354774</v>
       </c>
       <c r="M23" t="n">
-        <v>26417725.77</v>
+        <v>27227490.2</v>
       </c>
     </row>
     <row r="24">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-8.375638</v>
+        <v>-8.042135</v>
       </c>
       <c r="M24" t="n">
-        <v>-18296035</v>
+        <v>-17736090</v>
       </c>
     </row>
     <row r="25">
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-15.679021</v>
+        <v>-14.952674</v>
       </c>
       <c r="M25" t="n">
-        <v>-34249800.01</v>
+        <v>-32976562.51</v>
       </c>
     </row>
     <row r="26">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.118559</v>
+        <v>0.8023</v>
       </c>
       <c r="M26" t="n">
-        <v>2443420</v>
+        <v>1769390</v>
       </c>
     </row>
     <row r="27">
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.399277</v>
+        <v>-4.709314</v>
       </c>
       <c r="M27" t="n">
-        <v>-7425500</v>
+        <v>-10385900</v>
       </c>
     </row>
     <row r="28">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-4.059288</v>
+        <v>-3.676047</v>
       </c>
       <c r="M28" t="n">
-        <v>-8867250</v>
+        <v>-8107137.5</v>
       </c>
     </row>
     <row r="29">
@@ -1310,40 +1310,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.66812</v>
+        <v>-0.770378</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.570089</v>
+        <v>-0.4682</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.805164</v>
+        <v>-0.912321</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.034687</v>
+        <v>-1.146581</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.901527</v>
+        <v>-1.025627</v>
       </c>
       <c r="G29" t="n">
         <v>2.514214</v>
       </c>
       <c r="H29" t="n">
-        <v>1.872144</v>
+        <v>1.333382</v>
       </c>
       <c r="I29" t="n">
-        <v>0.953376</v>
+        <v>0.944334</v>
       </c>
       <c r="J29" t="n">
-        <v>3.412169</v>
+        <v>3.268933</v>
       </c>
       <c r="K29" t="n">
         <v>3.646195</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.71952</v>
+        <v>-7.619648</v>
       </c>
       <c r="M29" t="n">
-        <v>-14685043.74</v>
+        <v>-16781563.4</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-36.351303</v>
+        <v>-32.909275</v>
       </c>
       <c r="M30" t="n">
-        <v>-79407056.25</v>
+        <v>-72577968.75</v>
       </c>
     </row>
     <row r="31">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.784304</v>
+        <v>-0.737579</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.669226</v>
+        <v>-0.448266</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.945179</v>
+        <v>-0.873479</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.214617</v>
+        <v>-1.097764</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.058301</v>
+        <v>-0.9819600000000001</v>
       </c>
       <c r="G31" t="n">
         <v>2.514214</v>
       </c>
       <c r="H31" t="n">
-        <v>1.872144</v>
+        <v>1.333382</v>
       </c>
       <c r="I31" t="n">
-        <v>0.953376</v>
+        <v>0.944334</v>
       </c>
       <c r="J31" t="n">
-        <v>3.412169</v>
+        <v>3.268933</v>
       </c>
       <c r="K31" t="n">
         <v>3.646195</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.888027</v>
+        <v>-7.295237</v>
       </c>
       <c r="M31" t="n">
-        <v>-17238735.73</v>
+        <v>-16067078.43</v>
       </c>
     </row>
     <row r="32">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.373588</v>
+        <v>-2.401981</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.025322</v>
+        <v>-1.459812</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.860456</v>
+        <v>-2.844549</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.67587</v>
+        <v>-3.574952</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.202801</v>
+        <v>-3.197827</v>
       </c>
       <c r="G32" t="n">
         <v>2.514214</v>
       </c>
       <c r="H32" t="n">
-        <v>1.872144</v>
+        <v>1.333382</v>
       </c>
       <c r="I32" t="n">
-        <v>0.953376</v>
+        <v>0.944334</v>
       </c>
       <c r="J32" t="n">
-        <v>3.412169</v>
+        <v>3.268933</v>
       </c>
       <c r="K32" t="n">
         <v>3.646195</v>
       </c>
       <c r="L32" t="n">
-        <v>-23.872028</v>
+        <v>-23.757486</v>
       </c>
       <c r="M32" t="n">
-        <v>-52170663.13</v>
+        <v>-52323647.92</v>
       </c>
     </row>
     <row r="33">
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.994772</v>
+        <v>-3.113672</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.067544</v>
+        <v>-2.820548</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.849652</v>
+        <v>-1.89719</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.420011</v>
+        <v>-2.303775</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.294251</v>
+        <v>-2.353482</v>
       </c>
       <c r="G33" t="n">
         <v>6.267168</v>
       </c>
       <c r="H33" t="n">
-        <v>5.602044</v>
+        <v>4.954011</v>
       </c>
       <c r="I33" t="n">
-        <v>1.217951</v>
+        <v>1.211124</v>
       </c>
       <c r="J33" t="n">
-        <v>4.438112</v>
+        <v>4.050807</v>
       </c>
       <c r="K33" t="n">
         <v>5.16014</v>
       </c>
       <c r="L33" t="n">
-        <v>-12.08311</v>
+        <v>-12.354774</v>
       </c>
       <c r="M33" t="n">
-        <v>-26417725.77</v>
+        <v>-27227490.2</v>
       </c>
     </row>
     <row r="34">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.215739</v>
+        <v>1.43508</v>
       </c>
       <c r="M34" t="n">
-        <v>2655702</v>
+        <v>3164918.4</v>
       </c>
     </row>
     <row r="35">
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-13.713162</v>
+        <v>-13.294739</v>
       </c>
       <c r="M35" t="n">
-        <v>-29955509.99</v>
+        <v>-29320159.99</v>
       </c>
     </row>
     <row r="36">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.227903</v>
+        <v>-1.127575</v>
       </c>
       <c r="M36" t="n">
-        <v>-2682275</v>
+        <v>-2486750</v>
       </c>
     </row>
     <row r="37">
@@ -1654,40 +1654,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-4.494927</v>
+        <v>-4.227713</v>
       </c>
       <c r="C37" t="n">
-        <v>-4.604151</v>
+        <v>-3.829712</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.776188</v>
+        <v>-2.575985</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.632253</v>
+        <v>-3.128042</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.443498</v>
+        <v>-3.195533</v>
       </c>
       <c r="G37" t="n">
         <v>6.267168</v>
       </c>
       <c r="H37" t="n">
-        <v>5.602044</v>
+        <v>4.954011</v>
       </c>
       <c r="I37" t="n">
-        <v>1.217951</v>
+        <v>1.211124</v>
       </c>
       <c r="J37" t="n">
-        <v>4.438112</v>
+        <v>4.050807</v>
       </c>
       <c r="K37" t="n">
         <v>5.16014</v>
       </c>
       <c r="L37" t="n">
-        <v>-18.135836</v>
+        <v>-16.775185</v>
       </c>
       <c r="M37" t="n">
-        <v>-39651010.41</v>
+        <v>-36969207.11</v>
       </c>
     </row>
     <row r="38">
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.135191</v>
+        <v>1.207425</v>
       </c>
       <c r="M38" t="n">
-        <v>2479750</v>
+        <v>2662850</v>
       </c>
     </row>
     <row r="39">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-4.438963</v>
+        <v>-4.270907</v>
       </c>
       <c r="M39" t="n">
-        <v>-9696625</v>
+        <v>-9419040</v>
       </c>
     </row>
     <row r="40">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.064182</v>
+        <v>2.04464</v>
       </c>
       <c r="M40" t="n">
-        <v>4509070</v>
+        <v>4509240</v>
       </c>
     </row>
     <row r="41">
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.0687</v>
+        <v>-3.27278</v>
       </c>
       <c r="M41" t="n">
-        <v>-6703375</v>
+        <v>-7217775</v>
       </c>
     </row>
     <row r="42">
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.755892</v>
+        <v>0.867768</v>
       </c>
       <c r="M42" t="n">
-        <v>1651196.4</v>
+        <v>1913772</v>
       </c>
     </row>
     <row r="43">
@@ -1912,40 +1912,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.341581</v>
+        <v>-0.345573</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.398629</v>
+        <v>-0.223242</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.402405</v>
+        <v>-0.402465</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.327126</v>
+        <v>-0.316053</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.323073</v>
+        <v>-0.322484</v>
       </c>
       <c r="G43" t="n">
         <v>2.336089</v>
       </c>
       <c r="H43" t="n">
-        <v>2.379101</v>
+        <v>1.316892</v>
       </c>
       <c r="I43" t="n">
-        <v>0.865947</v>
+        <v>0.862894</v>
       </c>
       <c r="J43" t="n">
-        <v>1.960582</v>
+        <v>1.866434</v>
       </c>
       <c r="K43" t="n">
         <v>2.374709</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.697346</v>
+        <v>-3.678608</v>
       </c>
       <c r="M43" t="n">
-        <v>-8070023.38</v>
+        <v>-8113388.98</v>
       </c>
     </row>
     <row r="44">
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-42.503212</v>
+        <v>-42.353626</v>
       </c>
       <c r="M44" t="n">
-        <v>-92845500</v>
+        <v>-93406500</v>
       </c>
     </row>
     <row r="45">
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.441492</v>
+        <v>-1.255369</v>
       </c>
       <c r="M45" t="n">
-        <v>-3148845</v>
+        <v>-2768585</v>
       </c>
     </row>
     <row r="46">
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-20.799944</v>
+        <v>-24.510681</v>
       </c>
       <c r="M46" t="n">
-        <v>-45436125</v>
+        <v>-54055750</v>
       </c>
     </row>
     <row r="47">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>171.0676</v>
+        <v>162.80801</v>
       </c>
       <c r="M47" t="n">
-        <v>373686031.25</v>
+        <v>359056095.48</v>
       </c>
     </row>
     <row r="48">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-101.00001</v>
+        <v>-98.71375999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>-220627946.32</v>
+        <v>-217702891.62</v>
       </c>
     </row>
     <row r="49">
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>32.01579</v>
+        <v>30.594284</v>
       </c>
       <c r="M49" t="n">
-        <v>69936406.25</v>
+        <v>67472500</v>
       </c>
     </row>
     <row r="50">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.625507</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>1366380</v>
+        <v>1323900</v>
       </c>
     </row>
     <row r="51">
@@ -2256,40 +2256,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.330795</v>
+        <v>-0.40274</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.302299</v>
+        <v>-0.47258</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.156791</v>
+        <v>-0.178574</v>
       </c>
       <c r="E51" t="n">
-        <v>0.043899</v>
+        <v>0.035744</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.137906</v>
+        <v>-0.168758</v>
       </c>
       <c r="G51" t="n">
-        <v>6.880265</v>
+        <v>6.978825</v>
       </c>
       <c r="H51" t="n">
-        <v>5.486943</v>
+        <v>7.14591</v>
       </c>
       <c r="I51" t="n">
-        <v>1.026124</v>
+        <v>0.98142</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.8001470000000001</v>
+        <v>-0.541084</v>
       </c>
       <c r="K51" t="n">
-        <v>3.082781</v>
+        <v>3.185471</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.215739</v>
+        <v>-1.43508</v>
       </c>
       <c r="M51" t="n">
-        <v>-2655702</v>
+        <v>-3164918.4</v>
       </c>
     </row>
     <row r="52">
@@ -2299,40 +2299,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.081465</v>
+        <v>2.052819</v>
       </c>
       <c r="C52" t="n">
-        <v>1.053491</v>
+        <v>1.445754</v>
       </c>
       <c r="D52" t="n">
-        <v>1.85175</v>
+        <v>1.819574</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.236096</v>
+        <v>-0.281963</v>
       </c>
       <c r="F52" t="n">
-        <v>2.176438</v>
+        <v>2.118252</v>
       </c>
       <c r="G52" t="n">
-        <v>3.838113</v>
+        <v>3.839759</v>
       </c>
       <c r="H52" t="n">
-        <v>1.695226</v>
+        <v>2.359787</v>
       </c>
       <c r="I52" t="n">
-        <v>1.074393</v>
+        <v>1.07945</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.381513</v>
+        <v>-0.460732</v>
       </c>
       <c r="K52" t="n">
-        <v>4.313282</v>
+        <v>4.316018</v>
       </c>
       <c r="L52" t="n">
-        <v>13.713162</v>
+        <v>13.294739</v>
       </c>
       <c r="M52" t="n">
-        <v>29955509.99</v>
+        <v>29320159.99</v>
       </c>
     </row>
     <row r="53">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43.725845</v>
+        <v>43.999004</v>
       </c>
       <c r="C53" t="n">
-        <v>43.20731</v>
+        <v>45.476116</v>
       </c>
       <c r="D53" t="n">
-        <v>42.456455</v>
+        <v>42.3295</v>
       </c>
       <c r="E53" t="n">
-        <v>38.595203</v>
+        <v>37.25977</v>
       </c>
       <c r="F53" t="n">
-        <v>36.27401</v>
+        <v>36.01313</v>
       </c>
       <c r="G53" t="n">
         <v>14.662323</v>
       </c>
       <c r="H53" t="n">
-        <v>12.643579</v>
+        <v>13.224167</v>
       </c>
       <c r="I53" t="n">
-        <v>4.479613</v>
+        <v>4.473861</v>
       </c>
       <c r="J53" t="n">
-        <v>11.341521</v>
+        <v>10.846841</v>
       </c>
       <c r="K53" t="n">
         <v>13.072935</v>
       </c>
       <c r="L53" t="n">
-        <v>75.408745</v>
+        <v>74.623085</v>
       </c>
       <c r="M53" t="n">
-        <v>164725499.85</v>
+        <v>164573431.75</v>
       </c>
     </row>
     <row r="54">
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.107086</v>
+        <v>0.100106</v>
       </c>
       <c r="C54" t="n">
-        <v>0.021558</v>
+        <v>0.005343</v>
       </c>
       <c r="D54" t="n">
-        <v>0.079649</v>
+        <v>0.075211</v>
       </c>
       <c r="E54" t="n">
-        <v>0.020498</v>
+        <v>0.033777</v>
       </c>
       <c r="F54" t="n">
-        <v>0.100896</v>
+        <v>0.09278599999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>2.205238</v>
+        <v>2.207737</v>
       </c>
       <c r="H54" t="n">
-        <v>0.387414</v>
+        <v>0.102833</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5160979999999999</v>
+        <v>0.526073</v>
       </c>
       <c r="J54" t="n">
-        <v>0.369917</v>
+        <v>0.650752</v>
       </c>
       <c r="K54" t="n">
-        <v>2.233113</v>
+        <v>2.229068</v>
       </c>
       <c r="L54" t="n">
-        <v>1.227903</v>
+        <v>1.127575</v>
       </c>
       <c r="M54" t="n">
-        <v>2682275</v>
+        <v>2486750</v>
       </c>
     </row>
     <row r="55">
@@ -2428,40 +2428,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7.023617</v>
+        <v>6.701002</v>
       </c>
       <c r="C55" t="n">
-        <v>6.312061</v>
+        <v>5.23674</v>
       </c>
       <c r="D55" t="n">
-        <v>8.232144</v>
+        <v>7.72805</v>
       </c>
       <c r="E55" t="n">
-        <v>10.682055</v>
+        <v>10.879046</v>
       </c>
       <c r="F55" t="n">
-        <v>17.940716</v>
+        <v>16.536642</v>
       </c>
       <c r="G55" t="n">
-        <v>9.792859999999999</v>
+        <v>9.933576</v>
       </c>
       <c r="H55" t="n">
-        <v>7.680123</v>
+        <v>6.774105</v>
       </c>
       <c r="I55" t="n">
-        <v>3.611552</v>
+        <v>3.633417</v>
       </c>
       <c r="J55" t="n">
-        <v>13.051997</v>
+        <v>14.088341</v>
       </c>
       <c r="K55" t="n">
-        <v>26.884468</v>
+        <v>26.703331</v>
       </c>
       <c r="L55" t="n">
-        <v>18.135836</v>
+        <v>16.775185</v>
       </c>
       <c r="M55" t="n">
-        <v>39651010.41</v>
+        <v>36969207.11</v>
       </c>
     </row>
     <row r="56">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.374476</v>
+        <v>-0.402021</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.145603</v>
+        <v>-0.230063</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.123119</v>
+        <v>-0.127368</v>
       </c>
       <c r="E56" t="n">
-        <v>0.320051</v>
+        <v>0.369694</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.038095</v>
+        <v>-0.046172</v>
       </c>
       <c r="G56" t="n">
-        <v>8.341448</v>
+        <v>8.279826999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2.830321</v>
+        <v>4.134699</v>
       </c>
       <c r="I56" t="n">
-        <v>0.86293</v>
+        <v>0.831977</v>
       </c>
       <c r="J56" t="n">
-        <v>-6.247547</v>
+        <v>-6.651483</v>
       </c>
       <c r="K56" t="n">
-        <v>0.912016</v>
+        <v>1.035873</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.135191</v>
+        <v>-1.207425</v>
       </c>
       <c r="M56" t="n">
-        <v>-2479750</v>
+        <v>-2662850</v>
       </c>
     </row>
     <row r="57">
@@ -2514,40 +2514,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.225469</v>
+        <v>3.155352</v>
       </c>
       <c r="C57" t="n">
-        <v>3.08132</v>
+        <v>3.207548</v>
       </c>
       <c r="D57" t="n">
-        <v>3.217722</v>
+        <v>3.120525</v>
       </c>
       <c r="E57" t="n">
-        <v>2.334881</v>
+        <v>2.347645</v>
       </c>
       <c r="F57" t="n">
-        <v>2.482089</v>
+        <v>2.394543</v>
       </c>
       <c r="G57" t="n">
-        <v>18.373745</v>
+        <v>18.372183</v>
       </c>
       <c r="H57" t="n">
-        <v>15.31757</v>
+        <v>16.297132</v>
       </c>
       <c r="I57" t="n">
-        <v>5.767471</v>
+        <v>5.762622</v>
       </c>
       <c r="J57" t="n">
-        <v>11.655824</v>
+        <v>11.941216</v>
       </c>
       <c r="K57" t="n">
-        <v>15.196205</v>
+        <v>15.187559</v>
       </c>
       <c r="L57" t="n">
-        <v>4.438963</v>
+        <v>4.270907</v>
       </c>
       <c r="M57" t="n">
-        <v>9696625</v>
+        <v>9419040</v>
       </c>
     </row>
     <row r="58">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.157796</v>
+        <v>-0.155624</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.095421</v>
+        <v>-0.876623</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.276272</v>
+        <v>-0.261162</v>
       </c>
       <c r="E58" t="n">
-        <v>0.681289</v>
+        <v>0.698466</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.068746</v>
+        <v>-0.043977</v>
       </c>
       <c r="G58" t="n">
-        <v>1.933012</v>
+        <v>1.892752</v>
       </c>
       <c r="H58" t="n">
-        <v>11.710297</v>
+        <v>9.303668</v>
       </c>
       <c r="I58" t="n">
-        <v>1.064895</v>
+        <v>1.007409</v>
       </c>
       <c r="J58" t="n">
-        <v>-7.313804</v>
+        <v>-7.421037</v>
       </c>
       <c r="K58" t="n">
-        <v>0.905104</v>
+        <v>0.582627</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.064182</v>
+        <v>-2.04464</v>
       </c>
       <c r="M58" t="n">
-        <v>-4509070</v>
+        <v>-4509240</v>
       </c>
     </row>
     <row r="59">
@@ -2600,40 +2600,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.193523</v>
+        <v>0.210062</v>
       </c>
       <c r="C59" t="n">
-        <v>1.65447</v>
+        <v>1.596877</v>
       </c>
       <c r="D59" t="n">
-        <v>0.44752</v>
+        <v>0.485101</v>
       </c>
       <c r="E59" t="n">
-        <v>0.396134</v>
+        <v>0.397864</v>
       </c>
       <c r="F59" t="n">
-        <v>0.006548</v>
+        <v>0.006774</v>
       </c>
       <c r="G59" t="n">
-        <v>1.59465</v>
+        <v>1.596111</v>
       </c>
       <c r="H59" t="n">
-        <v>11.897041</v>
+        <v>10.58797</v>
       </c>
       <c r="I59" t="n">
-        <v>1.160318</v>
+        <v>1.169036</v>
       </c>
       <c r="J59" t="n">
-        <v>2.860533</v>
+        <v>2.640911</v>
       </c>
       <c r="K59" t="n">
-        <v>0.057994</v>
+        <v>0.056071</v>
       </c>
       <c r="L59" t="n">
-        <v>3.0687</v>
+        <v>3.27278</v>
       </c>
       <c r="M59" t="n">
-        <v>6703375</v>
+        <v>7217775</v>
       </c>
     </row>
     <row r="60">
@@ -2643,40 +2643,40 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.135097</v>
+        <v>-0.156277</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.08404399999999999</v>
+        <v>-0.143994</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.048975</v>
+        <v>-0.052498</v>
       </c>
       <c r="E60" t="n">
-        <v>0.285628</v>
+        <v>0.327893</v>
       </c>
       <c r="F60" t="n">
-        <v>0.052284</v>
+        <v>0.062198</v>
       </c>
       <c r="G60" t="n">
-        <v>4.519307</v>
+        <v>4.47842</v>
       </c>
       <c r="H60" t="n">
-        <v>2.453488</v>
+        <v>3.600787</v>
       </c>
       <c r="I60" t="n">
-        <v>0.515504</v>
+        <v>0.477143</v>
       </c>
       <c r="J60" t="n">
-        <v>-8.373393999999999</v>
+        <v>-8.208525</v>
       </c>
       <c r="K60" t="n">
-        <v>-1.879799</v>
+        <v>-1.941578</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.755892</v>
+        <v>-0.867768</v>
       </c>
       <c r="M60" t="n">
-        <v>-1651196.4</v>
+        <v>-1913772</v>
       </c>
     </row>
     <row r="61">
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>10.804695</v>
+        <v>10.951121</v>
       </c>
       <c r="M61" t="n">
-        <v>23602152.63</v>
+        <v>24151554.28</v>
       </c>
     </row>
     <row r="62">
@@ -2729,40 +2729,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.543323</v>
+        <v>1.561323</v>
       </c>
       <c r="C62" t="n">
-        <v>1.589678</v>
+        <v>1.455229</v>
       </c>
       <c r="D62" t="n">
-        <v>1.673713</v>
+        <v>1.67527</v>
       </c>
       <c r="E62" t="n">
-        <v>1.677178</v>
+        <v>1.556883</v>
       </c>
       <c r="F62" t="n">
-        <v>1.598662</v>
+        <v>1.595175</v>
       </c>
       <c r="G62" t="n">
-        <v>10.554875</v>
+        <v>10.554612</v>
       </c>
       <c r="H62" t="n">
-        <v>9.487538000000001</v>
+        <v>8.584324000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>3.601716</v>
+        <v>3.591815</v>
       </c>
       <c r="J62" t="n">
-        <v>10.051918</v>
+        <v>9.194088000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>11.750756</v>
+        <v>11.746543</v>
       </c>
       <c r="L62" t="n">
-        <v>3.697346</v>
+        <v>3.678608</v>
       </c>
       <c r="M62" t="n">
-        <v>8070023.38</v>
+        <v>8113388.98</v>
       </c>
     </row>
     <row r="63">
@@ -2772,40 +2772,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>24.75809</v>
+        <v>25.08568</v>
       </c>
       <c r="C63" t="n">
-        <v>24.614311</v>
+        <v>26.15592</v>
       </c>
       <c r="D63" t="n">
-        <v>23.916414</v>
+        <v>24.003668</v>
       </c>
       <c r="E63" t="n">
-        <v>21.24768</v>
+        <v>20.662304</v>
       </c>
       <c r="F63" t="n">
-        <v>20.28982</v>
+        <v>20.271873</v>
       </c>
       <c r="G63" t="n">
-        <v>14.729283</v>
+        <v>14.728836</v>
       </c>
       <c r="H63" t="n">
-        <v>12.779105</v>
+        <v>13.401011</v>
       </c>
       <c r="I63" t="n">
-        <v>4.477058</v>
+        <v>4.469919</v>
       </c>
       <c r="J63" t="n">
-        <v>11.077697</v>
+        <v>10.598014</v>
       </c>
       <c r="K63" t="n">
-        <v>12.973456</v>
+        <v>12.965484</v>
       </c>
       <c r="L63" t="n">
-        <v>42.503212</v>
+        <v>42.353626</v>
       </c>
       <c r="M63" t="n">
-        <v>92845500</v>
+        <v>93406500</v>
       </c>
     </row>
     <row r="64">
@@ -2815,40 +2815,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.455293</v>
+        <v>0.40319</v>
       </c>
       <c r="C64" t="n">
-        <v>0.537507</v>
+        <v>0.524165</v>
       </c>
       <c r="D64" t="n">
-        <v>0.518436</v>
+        <v>0.452894</v>
       </c>
       <c r="E64" t="n">
-        <v>0.288864</v>
+        <v>0.254597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.525155</v>
+        <v>0.458482</v>
       </c>
       <c r="G64" t="n">
-        <v>7.986661</v>
+        <v>7.986778</v>
       </c>
       <c r="H64" t="n">
-        <v>8.228229000000001</v>
+        <v>9.060561999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>2.861552</v>
+        <v>2.845366</v>
       </c>
       <c r="J64" t="n">
-        <v>4.44059</v>
+        <v>4.405726</v>
       </c>
       <c r="K64" t="n">
-        <v>9.900892000000001</v>
+        <v>9.893190000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>1.441492</v>
+        <v>1.255369</v>
       </c>
       <c r="M64" t="n">
-        <v>3148845</v>
+        <v>2768585</v>
       </c>
     </row>
     <row r="65">
@@ -2858,40 +2858,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.331938</v>
+        <v>1.874573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.099645</v>
+        <v>-0.125049</v>
       </c>
       <c r="D65" t="n">
-        <v>2.215743</v>
+        <v>2.777167</v>
       </c>
       <c r="E65" t="n">
-        <v>1.746128</v>
+        <v>2.25483</v>
       </c>
       <c r="F65" t="n">
-        <v>4.17985</v>
+        <v>4.679837</v>
       </c>
       <c r="G65" t="n">
-        <v>1.619229</v>
+        <v>1.901867</v>
       </c>
       <c r="H65" t="n">
-        <v>0.105713</v>
+        <v>-0.110709</v>
       </c>
       <c r="I65" t="n">
-        <v>0.84757</v>
+        <v>0.893633</v>
       </c>
       <c r="J65" t="n">
-        <v>1.86026</v>
+        <v>1.998457</v>
       </c>
       <c r="K65" t="n">
-        <v>5.461322</v>
+        <v>5.172027</v>
       </c>
       <c r="L65" t="n">
-        <v>20.799944</v>
+        <v>24.510681</v>
       </c>
       <c r="M65" t="n">
-        <v>45436125</v>
+        <v>54055750</v>
       </c>
     </row>
     <row r="66">
@@ -2901,40 +2901,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.886356</v>
+        <v>-7.498538</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.83185</v>
+        <v>-1.262323</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.328394</v>
+        <v>-4.450623</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.923878</v>
+        <v>-1.052379</v>
       </c>
       <c r="F66" t="n">
-        <v>-8.107308</v>
+        <v>-6.064205</v>
       </c>
       <c r="G66" t="n">
-        <v>0.870092</v>
+        <v>1.145339</v>
       </c>
       <c r="H66" t="n">
-        <v>0.107303</v>
+        <v>0.168249</v>
       </c>
       <c r="I66" t="n">
-        <v>0.201316</v>
+        <v>0.215604</v>
       </c>
       <c r="J66" t="n">
-        <v>0.249212</v>
+        <v>0.140421</v>
       </c>
       <c r="K66" t="n">
-        <v>1.287977</v>
+        <v>1.008982</v>
       </c>
       <c r="L66" t="n">
-        <v>-171.06761</v>
+        <v>-162.80803</v>
       </c>
       <c r="M66" t="n">
-        <v>-373686031.25</v>
+        <v>-359056095.48</v>
       </c>
     </row>
     <row r="67">
@@ -2944,40 +2944,40 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.955649</v>
+        <v>7.030755</v>
       </c>
       <c r="C67" t="n">
-        <v>1.225973</v>
+        <v>0.713546</v>
       </c>
       <c r="D67" t="n">
-        <v>7.555258</v>
+        <v>7.873062</v>
       </c>
       <c r="E67" t="n">
-        <v>5.456095</v>
+        <v>5.743192</v>
       </c>
       <c r="F67" t="n">
-        <v>13.852883</v>
+        <v>12.546208</v>
       </c>
       <c r="G67" t="n">
-        <v>1.491056</v>
+        <v>1.771158</v>
       </c>
       <c r="H67" t="n">
-        <v>0.267852</v>
+        <v>0.156856</v>
       </c>
       <c r="I67" t="n">
-        <v>0.595177</v>
+        <v>0.629041</v>
       </c>
       <c r="J67" t="n">
-        <v>1.197072</v>
+        <v>1.263898</v>
       </c>
       <c r="K67" t="n">
-        <v>3.727503</v>
+        <v>3.442867</v>
       </c>
       <c r="L67" t="n">
-        <v>101.00001</v>
+        <v>98.71375999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>220627946.32</v>
+        <v>217702891.62</v>
       </c>
     </row>
     <row r="68">
@@ -2987,40 +2987,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.77664</v>
+        <v>-2.080026</v>
       </c>
       <c r="C68" t="n">
-        <v>0.719851</v>
+        <v>1.232566</v>
       </c>
       <c r="D68" t="n">
-        <v>-5.440388</v>
+        <v>-5.524724</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.92877</v>
+        <v>-4.265466</v>
       </c>
       <c r="F68" t="n">
-        <v>-10.462255</v>
+        <v>-9.690709</v>
       </c>
       <c r="G68" t="n">
-        <v>1.403207</v>
+        <v>1.690681</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.49615</v>
+        <v>-0.874235</v>
       </c>
       <c r="I68" t="n">
-        <v>1.352023</v>
+        <v>1.424239</v>
       </c>
       <c r="J68" t="n">
-        <v>2.719268</v>
+        <v>3.028744</v>
       </c>
       <c r="K68" t="n">
-        <v>8.880967999999999</v>
+        <v>8.580265000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>-32.01579</v>
+        <v>-30.594284</v>
       </c>
       <c r="M68" t="n">
-        <v>-69936406.25</v>
+        <v>-67472500</v>
       </c>
     </row>
     <row r="69">
@@ -3030,40 +3030,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.139246</v>
+        <v>-0.134634</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.211294</v>
+        <v>-0.229694</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.08870599999999999</v>
+        <v>-0.082971</v>
       </c>
       <c r="E69" t="n">
-        <v>0.050112</v>
+        <v>0.049167</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.04182</v>
+        <v>-0.040681</v>
       </c>
       <c r="G69" t="n">
-        <v>5.629064</v>
+        <v>5.577249</v>
       </c>
       <c r="H69" t="n">
-        <v>7.454014</v>
+        <v>8.30307</v>
       </c>
       <c r="I69" t="n">
-        <v>1.128339</v>
+        <v>1.09011</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.775296</v>
+        <v>-1.779252</v>
       </c>
       <c r="K69" t="n">
-        <v>1.816996</v>
+        <v>1.835717</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.625507</v>
+        <v>-0.6002999999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>-1366380</v>
+        <v>-1323900</v>
       </c>
     </row>
   </sheetData>
